--- a/Daily/Forecast/Non-Stationarity/Log-Price/toyota.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Log-Price/toyota.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,41 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="C2">
-        <v>7.851994049643361</v>
+        <v>7.747565409781879</v>
       </c>
       <c r="D2">
-        <v>7.600941133356166</v>
+        <v>7.490719449540462</v>
       </c>
       <c r="E2">
-        <v>8.103046965930556</v>
+        <v>8.004411370023297</v>
       </c>
       <c r="F2">
-        <v>7.863459013213127</v>
+        <v>7.720017940432244</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>2585</v>
+      </c>
+      <c r="B3">
+        <v>2585</v>
+      </c>
+      <c r="C3">
+        <v>7.71982660300247</v>
+      </c>
+      <c r="D3">
+        <v>7.463028131485276</v>
+      </c>
+      <c r="E3">
+        <v>7.976625074519664</v>
+      </c>
+      <c r="F3">
+        <v>7.716015266642587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2586</v>
+      </c>
+      <c r="B4">
+        <v>2586</v>
+      </c>
+      <c r="C4">
+        <v>7.715971483475764</v>
+      </c>
+      <c r="D4">
+        <v>7.459222627149778</v>
+      </c>
+      <c r="E4">
+        <v>7.97272033980175</v>
+      </c>
+      <c r="F4">
+        <v>7.704586570818964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2587</v>
+      </c>
+      <c r="B5">
+        <v>2587</v>
+      </c>
+      <c r="C5">
+        <v>7.704492102868794</v>
+      </c>
+      <c r="D5">
+        <v>7.447792494736926</v>
+      </c>
+      <c r="E5">
+        <v>7.961191711000663</v>
+      </c>
+      <c r="F5">
+        <v>7.714454334226198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2588</v>
+      </c>
+      <c r="B6">
+        <v>2588</v>
+      </c>
+      <c r="C6">
+        <v>7.714497667802357</v>
+      </c>
+      <c r="D6">
+        <v>7.457847376781379</v>
+      </c>
+      <c r="E6">
+        <v>7.971147958823336</v>
+      </c>
+      <c r="F6">
+        <v>7.695985340788774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B7">
+        <v>2589</v>
+      </c>
+      <c r="C7">
+        <v>7.695854810303778</v>
+      </c>
+      <c r="D7">
+        <v>7.439253098053338</v>
+      </c>
+      <c r="E7">
+        <v>7.952456522554219</v>
+      </c>
+      <c r="F7">
+        <v>7.705712823894427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B8">
+        <v>2590</v>
+      </c>
+      <c r="C8">
+        <v>7.705751483188686</v>
+      </c>
+      <c r="D8">
+        <v>7.449199031884758</v>
+      </c>
+      <c r="E8">
+        <v>7.962303934492613</v>
+      </c>
+      <c r="F8">
+        <v>7.71289096149013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B9">
+        <v>2591</v>
+      </c>
+      <c r="C9">
+        <v>7.712905930496463</v>
+      </c>
+      <c r="D9">
+        <v>7.456402758370335</v>
+      </c>
+      <c r="E9">
+        <v>7.969409102622591</v>
+      </c>
+      <c r="F9">
+        <v>7.740664401917241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2592</v>
+      </c>
+      <c r="B10">
+        <v>2592</v>
+      </c>
+      <c r="C10">
+        <v>7.740816591372332</v>
+      </c>
+      <c r="D10">
+        <v>7.484360766509814</v>
+      </c>
+      <c r="E10">
+        <v>7.99727241623485</v>
+      </c>
+      <c r="F10">
+        <v>7.738705963689276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2593</v>
+      </c>
+      <c r="B11">
+        <v>2593</v>
+      </c>
+      <c r="C11">
+        <v>7.73867342542979</v>
+      </c>
+      <c r="D11">
+        <v>7.482267041007409</v>
+      </c>
+      <c r="E11">
+        <v>7.99507980985217</v>
+      </c>
+      <c r="F11">
+        <v>7.744353241947044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B12">
+        <v>2594</v>
+      </c>
+      <c r="C12">
+        <v>7.74436536299141</v>
+      </c>
+      <c r="D12">
+        <v>7.488008296578752</v>
+      </c>
+      <c r="E12">
+        <v>8.000722429404068</v>
+      </c>
+      <c r="F12">
+        <v>7.751690348664152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2595</v>
+      </c>
+      <c r="B13">
+        <v>2595</v>
+      </c>
+      <c r="C13">
+        <v>7.75171301357854</v>
+      </c>
+      <c r="D13">
+        <v>7.495405194709489</v>
+      </c>
+      <c r="E13">
+        <v>8.00802083244759</v>
+      </c>
+      <c r="F13">
+        <v>7.757051142032013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2596</v>
+      </c>
+      <c r="B14">
+        <v>2596</v>
+      </c>
+      <c r="C14">
+        <v>7.757064075557556</v>
+      </c>
+      <c r="D14">
+        <v>7.500805563171637</v>
+      </c>
+      <c r="E14">
+        <v>8.013322587943474</v>
+      </c>
+      <c r="F14">
+        <v>7.75833346749091</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2597</v>
+      </c>
+      <c r="B15">
+        <v>2597</v>
+      </c>
+      <c r="C15">
+        <v>7.758322124777485</v>
+      </c>
+      <c r="D15">
+        <v>7.502112949037136</v>
+      </c>
+      <c r="E15">
+        <v>8.014531300517833</v>
+      </c>
+      <c r="F15">
+        <v>7.752335163302292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2598</v>
+      </c>
+      <c r="B16">
+        <v>2598</v>
+      </c>
+      <c r="C16">
+        <v>7.752278740950948</v>
+      </c>
+      <c r="D16">
+        <v>7.496118773819957</v>
+      </c>
+      <c r="E16">
+        <v>8.00843870808194</v>
+      </c>
+      <c r="F16">
+        <v>7.740446986979978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>2599</v>
+      </c>
+      <c r="B17">
+        <v>2599</v>
+      </c>
+      <c r="C17">
+        <v>7.740352833105788</v>
+      </c>
+      <c r="D17">
+        <v>7.48424174440105</v>
+      </c>
+      <c r="E17">
+        <v>7.996463921810525</v>
+      </c>
+      <c r="F17">
+        <v>7.723120092266331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>2600</v>
+      </c>
+      <c r="C18">
+        <v>7.722983823508266</v>
+      </c>
+      <c r="D18">
+        <v>7.466921137611756</v>
+      </c>
+      <c r="E18">
+        <v>7.979046509404776</v>
+      </c>
+      <c r="F18">
+        <v>7.701200180857446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>2601</v>
+      </c>
+      <c r="B19">
+        <v>2601</v>
+      </c>
+      <c r="C19">
+        <v>7.701023511562632</v>
+      </c>
+      <c r="D19">
+        <v>7.445008680611278</v>
+      </c>
+      <c r="E19">
+        <v>7.957038342513985</v>
+      </c>
+      <c r="F19">
+        <v>7.695303134963567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2602</v>
+      </c>
+      <c r="B20">
+        <v>2602</v>
+      </c>
+      <c r="C20">
+        <v>7.695205371504581</v>
+      </c>
+      <c r="D20">
+        <v>7.439239445700414</v>
+      </c>
+      <c r="E20">
+        <v>7.951171297308747</v>
+      </c>
+      <c r="F20">
+        <v>7.701426297308381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2603</v>
+      </c>
+      <c r="B21">
+        <v>2603</v>
+      </c>
+      <c r="C21">
+        <v>7.701452117364026</v>
+      </c>
+      <c r="D21">
+        <v>7.445535460592289</v>
+      </c>
+      <c r="E21">
+        <v>7.957368774135762</v>
+      </c>
+      <c r="F21">
+        <v>7.704361167910313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2604</v>
+      </c>
+      <c r="B22">
+        <v>2604</v>
+      </c>
+      <c r="C22">
+        <v>7.704344607567647</v>
+      </c>
+      <c r="D22">
+        <v>7.448476978952642</v>
+      </c>
+      <c r="E22">
+        <v>7.960212236182652</v>
+      </c>
+      <c r="F22">
+        <v>7.714231144849085</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="B23">
+        <v>2605</v>
+      </c>
+      <c r="C23">
+        <v>7.714262666388001</v>
+      </c>
+      <c r="D23">
+        <v>7.458443815157432</v>
+      </c>
+      <c r="E23">
+        <v>7.970081517618569</v>
+      </c>
+      <c r="F23">
+        <v>7.736743682453495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>2606</v>
+      </c>
+      <c r="B24">
+        <v>2606</v>
+      </c>
+      <c r="C24">
+        <v>7.736899908418481</v>
+      </c>
+      <c r="D24">
+        <v>7.481128840131857</v>
+      </c>
+      <c r="E24">
+        <v>7.992670976705105</v>
+      </c>
+      <c r="F24">
+        <v>7.734996194022781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>2607</v>
+      </c>
+      <c r="B25">
+        <v>2607</v>
+      </c>
+      <c r="C25">
+        <v>7.734962558896445</v>
+      </c>
+      <c r="D25">
+        <v>7.479240539955557</v>
+      </c>
+      <c r="E25">
+        <v>7.990684577837333</v>
+      </c>
+      <c r="F25">
+        <v>7.735214797149676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>2608</v>
+      </c>
+      <c r="B26">
+        <v>2608</v>
+      </c>
+      <c r="C26">
+        <v>7.735197452024948</v>
+      </c>
+      <c r="D26">
+        <v>7.479524463531334</v>
+      </c>
+      <c r="E26">
+        <v>7.990870440518563</v>
+      </c>
+      <c r="F26">
+        <v>7.751045117971802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2609</v>
+      </c>
+      <c r="B27">
+        <v>2609</v>
+      </c>
+      <c r="C27">
+        <v>7.751137100690081</v>
+      </c>
+      <c r="D27">
+        <v>7.495512322222082</v>
+      </c>
+      <c r="E27">
+        <v>8.006761879158081</v>
+      </c>
+      <c r="F27">
+        <v>7.759827438529641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>2610</v>
+      </c>
+      <c r="B28">
+        <v>2610</v>
+      </c>
+      <c r="C28">
+        <v>7.759875433826676</v>
+      </c>
+      <c r="D28">
+        <v>7.504299483127575</v>
+      </c>
+      <c r="E28">
+        <v>8.015451384525777</v>
+      </c>
+      <c r="F28">
+        <v>7.750184162257836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>2611</v>
+      </c>
+      <c r="B29">
+        <v>2611</v>
+      </c>
+      <c r="C29">
+        <v>7.75008804190985</v>
+      </c>
+      <c r="D29">
+        <v>7.494560760780314</v>
+      </c>
+      <c r="E29">
+        <v>8.005615323039384</v>
+      </c>
+      <c r="F29">
+        <v>7.749537958681231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2612</v>
+      </c>
+      <c r="B30">
+        <v>2612</v>
+      </c>
+      <c r="C30">
+        <v>7.749511228252279</v>
+      </c>
+      <c r="D30">
+        <v>7.494032853448421</v>
+      </c>
+      <c r="E30">
+        <v>8.004989603056138</v>
+      </c>
+      <c r="F30">
+        <v>7.745002803515839</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>2613</v>
+      </c>
+      <c r="B31">
+        <v>2613</v>
+      </c>
+      <c r="C31">
+        <v>7.744948337444315</v>
+      </c>
+      <c r="D31">
+        <v>7.489518810743007</v>
+      </c>
+      <c r="E31">
+        <v>8.000377864145623</v>
+      </c>
+      <c r="F31">
+        <v>7.777373602657861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B32">
+        <v>2614</v>
+      </c>
+      <c r="C32">
+        <v>7.777596731004837</v>
+      </c>
+      <c r="D32">
+        <v>7.522213036193446</v>
+      </c>
+      <c r="E32">
+        <v>8.032980425816227</v>
+      </c>
+      <c r="F32">
+        <v>7.802004879979412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B33">
+        <v>2615</v>
+      </c>
+      <c r="C33">
+        <v>7.802196448324058</v>
+      </c>
+      <c r="D33">
+        <v>7.546859886587754</v>
+      </c>
+      <c r="E33">
+        <v>8.057533010060363</v>
+      </c>
+      <c r="F33">
+        <v>7.825045511189376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>2616</v>
+      </c>
+      <c r="B34">
+        <v>2616</v>
+      </c>
+      <c r="C34">
+        <v>7.825241202153163</v>
+      </c>
+      <c r="D34">
+        <v>7.569951938869997</v>
+      </c>
+      <c r="E34">
+        <v>8.080530465436329</v>
+      </c>
+      <c r="F34">
+        <v>7.786344143672281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>2617</v>
+      </c>
+      <c r="B35">
+        <v>2617</v>
+      </c>
+      <c r="C35">
+        <v>7.786007288711577</v>
+      </c>
+      <c r="D35">
+        <v>7.530762466739411</v>
+      </c>
+      <c r="E35">
+        <v>8.041252110683743</v>
+      </c>
+      <c r="F35">
+        <v>7.798728202872002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>2618</v>
+      </c>
+      <c r="B36">
+        <v>2618</v>
+      </c>
+      <c r="C36">
+        <v>7.798798168887093</v>
+      </c>
+      <c r="D36">
+        <v>7.543601630416243</v>
+      </c>
+      <c r="E36">
+        <v>8.053994707357942</v>
+      </c>
+      <c r="F36">
+        <v>7.801391320291486</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2619</v>
+      </c>
+      <c r="B37">
+        <v>2619</v>
+      </c>
+      <c r="C37">
+        <v>7.801390945148431</v>
+      </c>
+      <c r="D37">
+        <v>7.54624311038112</v>
+      </c>
+      <c r="E37">
+        <v>8.056538779915742</v>
+      </c>
+      <c r="F37">
+        <v>7.792968055285431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>2620</v>
+      </c>
+      <c r="B38">
+        <v>2620</v>
+      </c>
+      <c r="C38">
+        <v>7.792879183430424</v>
+      </c>
+      <c r="D38">
+        <v>7.53777983548598</v>
+      </c>
+      <c r="E38">
+        <v>8.047978531374866</v>
+      </c>
+      <c r="F38">
+        <v>7.781347256323177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>2621</v>
+      </c>
+      <c r="B39">
+        <v>2621</v>
+      </c>
+      <c r="C39">
+        <v>7.781173699884891</v>
+      </c>
+      <c r="D39">
+        <v>7.526122486054969</v>
+      </c>
+      <c r="E39">
+        <v>8.036224913714813</v>
+      </c>
+      <c r="F39">
+        <v>7.795234929002173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>2622</v>
+      </c>
+      <c r="B40">
+        <v>2622</v>
+      </c>
+      <c r="C40">
+        <v>7.795318504433046</v>
+      </c>
+      <c r="D40">
+        <v>7.54031553453639</v>
+      </c>
+      <c r="E40">
+        <v>8.050321474329701</v>
+      </c>
+      <c r="F40">
+        <v>7.786551806428712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>2623</v>
+      </c>
+      <c r="B41">
+        <v>2623</v>
+      </c>
+      <c r="C41">
+        <v>7.786470661482329</v>
+      </c>
+      <c r="D41">
+        <v>7.531516071331801</v>
+      </c>
+      <c r="E41">
+        <v>8.041425251632857</v>
+      </c>
+      <c r="F41">
+        <v>7.791109510610028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B42">
+        <v>2624</v>
+      </c>
+      <c r="C42">
+        <v>7.791088960461333</v>
+      </c>
+      <c r="D42">
+        <v>7.536182709760592</v>
+      </c>
+      <c r="E42">
+        <v>8.045995211162074</v>
+      </c>
+      <c r="F42">
+        <v>7.770856182342173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>2625</v>
+      </c>
+      <c r="B43">
+        <v>2625</v>
+      </c>
+      <c r="C43">
+        <v>7.770694686679405</v>
+      </c>
+      <c r="D43">
+        <v>7.515836005112427</v>
+      </c>
+      <c r="E43">
+        <v>8.025553368246383</v>
+      </c>
+      <c r="F43">
+        <v>7.773594467360194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B44">
+        <v>2626</v>
+      </c>
+      <c r="C44">
+        <v>7.773594879986007</v>
+      </c>
+      <c r="D44">
+        <v>7.518784710175273</v>
+      </c>
+      <c r="E44">
+        <v>8.02840504979674</v>
+      </c>
+      <c r="F44">
+        <v>7.761744984658913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>2627</v>
+      </c>
+      <c r="B45">
+        <v>2627</v>
+      </c>
+      <c r="C45">
+        <v>7.761635996893577</v>
+      </c>
+      <c r="D45">
+        <v>7.506873876734499</v>
+      </c>
+      <c r="E45">
+        <v>8.016398117052654</v>
+      </c>
+      <c r="F45">
+        <v>7.764932746363786</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>2628</v>
+      </c>
+      <c r="B46">
+        <v>2628</v>
+      </c>
+      <c r="C46">
+        <v>7.764935682543763</v>
+      </c>
+      <c r="D46">
+        <v>7.51022205879047</v>
+      </c>
+      <c r="E46">
+        <v>8.019649306297056</v>
+      </c>
+      <c r="F46">
+        <v>7.790075491285139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>2629</v>
+      </c>
+      <c r="B47">
+        <v>2629</v>
+      </c>
+      <c r="C47">
+        <v>7.790230124013162</v>
+      </c>
+      <c r="D47">
+        <v>7.53556313627019</v>
+      </c>
+      <c r="E47">
+        <v>8.044897111756132</v>
+      </c>
+      <c r="F47">
+        <v>7.787589473845677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>2630</v>
+      </c>
+      <c r="B48">
+        <v>2630</v>
+      </c>
+      <c r="C48">
+        <v>7.787552424855443</v>
+      </c>
+      <c r="D48">
+        <v>7.532933837715821</v>
+      </c>
+      <c r="E48">
+        <v>8.042171011995066</v>
+      </c>
+      <c r="F48">
+        <v>7.783224016336037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>2631</v>
+      </c>
+      <c r="B49">
+        <v>2631</v>
+      </c>
+      <c r="C49">
+        <v>7.783175251548094</v>
+      </c>
+      <c r="D49">
+        <v>7.528604997631026</v>
+      </c>
+      <c r="E49">
+        <v>8.037745505465162</v>
+      </c>
+      <c r="F49">
+        <v>7.781138509845015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>2632</v>
+      </c>
+      <c r="B50">
+        <v>2632</v>
+      </c>
+      <c r="C50">
+        <v>7.781105217087931</v>
+      </c>
+      <c r="D50">
+        <v>7.526583321027921</v>
+      </c>
+      <c r="E50">
+        <v>8.035627113147941</v>
+      </c>
+      <c r="F50">
+        <v>7.798317862283561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>2633</v>
+      </c>
+      <c r="B51">
+        <v>2633</v>
+      </c>
+      <c r="C51">
+        <v>7.798418179842806</v>
+      </c>
+      <c r="D51">
+        <v>7.543943773964405</v>
+      </c>
+      <c r="E51">
+        <v>8.052892585721207</v>
+      </c>
+      <c r="F51">
+        <v>7.796263629843841</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B52">
+        <v>2634</v>
+      </c>
+      <c r="C52">
+        <v>7.79622929534943</v>
+      </c>
+      <c r="D52">
+        <v>7.541803182333367</v>
+      </c>
+      <c r="E52">
+        <v>8.050655408365493</v>
+      </c>
+      <c r="F52">
+        <v>7.806492851608703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>2635</v>
+      </c>
+      <c r="B53">
+        <v>2635</v>
+      </c>
+      <c r="C53">
+        <v>7.806540806510082</v>
+      </c>
+      <c r="D53">
+        <v>7.552162645754753</v>
+      </c>
+      <c r="E53">
+        <v>8.06091896726541</v>
+      </c>
+      <c r="F53">
+        <v>7.83002808253384</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>2636</v>
+      </c>
+      <c r="B54">
+        <v>2636</v>
+      </c>
+      <c r="C54">
+        <v>7.830174332714962</v>
+      </c>
+      <c r="D54">
+        <v>7.575842877073398</v>
+      </c>
+      <c r="E54">
+        <v>8.084505788356525</v>
+      </c>
+      <c r="F54">
+        <v>7.831815748120653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>2637</v>
+      </c>
+      <c r="B55">
+        <v>2637</v>
+      </c>
+      <c r="C55">
+        <v>7.831808236203547</v>
+      </c>
+      <c r="D55">
+        <v>7.57752500435173</v>
+      </c>
+      <c r="E55">
+        <v>8.086091468055363</v>
+      </c>
+      <c r="F55">
+        <v>7.862304722973382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>2638</v>
+      </c>
+      <c r="B56">
+        <v>2638</v>
+      </c>
+      <c r="C56">
+        <v>7.862497977582176</v>
+      </c>
+      <c r="D56">
+        <v>7.60826022024753</v>
+      </c>
+      <c r="E56">
+        <v>8.116735734916823</v>
+      </c>
+      <c r="F56">
+        <v>7.859026979751538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>2639</v>
+      </c>
+      <c r="B57">
+        <v>2639</v>
+      </c>
+      <c r="C57">
+        <v>7.858983556495324</v>
+      </c>
+      <c r="D57">
+        <v>7.604794001780205</v>
+      </c>
+      <c r="E57">
+        <v>8.113173111210443</v>
+      </c>
+      <c r="F57">
+        <v>7.882692206289025</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B58">
+        <v>2640</v>
+      </c>
+      <c r="C58">
+        <v>7.882825559883823</v>
+      </c>
+      <c r="D58">
+        <v>7.62868247622205</v>
+      </c>
+      <c r="E58">
+        <v>8.136968643545597</v>
+      </c>
+      <c r="F58">
+        <v>7.877397186353287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>2641</v>
+      </c>
+      <c r="B59">
+        <v>2641</v>
+      </c>
+      <c r="C59">
+        <v>7.877337008396449</v>
+      </c>
+      <c r="D59">
+        <v>7.623242000235929</v>
+      </c>
+      <c r="E59">
+        <v>8.131432016556968</v>
+      </c>
+      <c r="F59">
+        <v>7.864419904994565</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>2642</v>
+      </c>
+      <c r="B60">
+        <v>2642</v>
+      </c>
+      <c r="C60">
+        <v>7.864313377424094</v>
+      </c>
+      <c r="D60">
+        <v>7.610266008742614</v>
+      </c>
+      <c r="E60">
+        <v>8.118360746105573</v>
+      </c>
+      <c r="F60">
+        <v>7.861341795599989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>2643</v>
+      </c>
+      <c r="B61">
+        <v>2643</v>
+      </c>
+      <c r="C61">
+        <v>7.861302268087079</v>
+      </c>
+      <c r="D61">
+        <v>7.607302938911722</v>
+      </c>
+      <c r="E61">
+        <v>8.115301597262436</v>
+      </c>
+      <c r="F61">
+        <v>7.884952945759814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>2644</v>
+      </c>
+      <c r="B62">
+        <v>2644</v>
+      </c>
+      <c r="C62">
+        <v>7.885096914606023</v>
+      </c>
+      <c r="D62">
+        <v>7.631144018772557</v>
+      </c>
+      <c r="E62">
+        <v>8.13904981043949</v>
+      </c>
+      <c r="F62">
+        <v>7.903780978875146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>2645</v>
+      </c>
+      <c r="B63">
+        <v>2645</v>
+      </c>
+      <c r="C63">
+        <v>7.903900612576286</v>
+      </c>
+      <c r="D63">
+        <v>7.649994734433782</v>
+      </c>
+      <c r="E63">
+        <v>8.157806490718789</v>
+      </c>
+      <c r="F63">
+        <v>7.91862865334224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B64">
+        <v>2646</v>
+      </c>
+      <c r="C64">
+        <v>7.918722915573142</v>
+      </c>
+      <c r="D64">
+        <v>7.664864390006554</v>
+      </c>
+      <c r="E64">
+        <v>8.17258144113973</v>
+      </c>
+      <c r="F64">
+        <v>7.945023937409195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>2647</v>
+      </c>
+      <c r="B65">
+        <v>2647</v>
+      </c>
+      <c r="C65">
+        <v>7.945217643504879</v>
+      </c>
+      <c r="D65">
+        <v>7.691404962064412</v>
+      </c>
+      <c r="E65">
+        <v>8.199030324945346</v>
+      </c>
+      <c r="F65">
+        <v>7.965545573129992</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>2648</v>
+      </c>
+      <c r="B66">
+        <v>2648</v>
+      </c>
+      <c r="C66">
+        <v>7.965708028265243</v>
+      </c>
+      <c r="D66">
+        <v>7.711942215886376</v>
+      </c>
+      <c r="E66">
+        <v>8.21947384064411</v>
+      </c>
+      <c r="F66">
+        <v>7.937017489515454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>2649</v>
+      </c>
+      <c r="B67">
+        <v>2649</v>
+      </c>
+      <c r="C67">
+        <v>7.936762150947611</v>
+      </c>
+      <c r="D67">
+        <v>7.683041908789031</v>
+      </c>
+      <c r="E67">
+        <v>8.190482393106191</v>
+      </c>
+      <c r="F67">
+        <v>7.93218266946087</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B68">
+        <v>2650</v>
+      </c>
+      <c r="C68">
+        <v>7.932121187960526</v>
+      </c>
+      <c r="D68">
+        <v>7.678448741980446</v>
+      </c>
+      <c r="E68">
+        <v>8.185793633940605</v>
+      </c>
+      <c r="F68">
+        <v>7.933259095829609</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>2651</v>
+      </c>
+      <c r="B69">
+        <v>2651</v>
+      </c>
+      <c r="C69">
+        <v>7.933212747477508</v>
+      </c>
+      <c r="D69">
+        <v>7.679587911355502</v>
+      </c>
+      <c r="E69">
+        <v>8.186837583599514</v>
+      </c>
+      <c r="F69">
+        <v>7.923529289341242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>2652</v>
+      </c>
+      <c r="B70">
+        <v>2652</v>
+      </c>
+      <c r="C70">
+        <v>7.923416820052907</v>
+      </c>
+      <c r="D70">
+        <v>7.66983972977485</v>
+      </c>
+      <c r="E70">
+        <v>8.176993910330964</v>
+      </c>
+      <c r="F70">
+        <v>7.907099565991578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>2653</v>
+      </c>
+      <c r="B71">
+        <v>2653</v>
+      </c>
+      <c r="C71">
+        <v>7.906938365448655</v>
+      </c>
+      <c r="D71">
+        <v>7.653408380706333</v>
+      </c>
+      <c r="E71">
+        <v>8.160468350190976</v>
+      </c>
+      <c r="F71">
+        <v>7.91862865334224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B72">
+        <v>2654</v>
+      </c>
+      <c r="C72">
+        <v>7.918684588192495</v>
+      </c>
+      <c r="D72">
+        <v>7.665201683907656</v>
+      </c>
+      <c r="E72">
+        <v>8.172167492477335</v>
+      </c>
+      <c r="F72">
+        <v>7.903226808730733</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>2655</v>
+      </c>
+      <c r="B73">
+        <v>2655</v>
+      </c>
+      <c r="C73">
+        <v>7.903069924775954</v>
+      </c>
+      <c r="D73">
+        <v>7.649634308883937</v>
+      </c>
+      <c r="E73">
+        <v>8.156505540667972</v>
+      </c>
+      <c r="F73">
+        <v>7.892638802321904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>2656</v>
+      </c>
+      <c r="B74">
+        <v>2656</v>
+      </c>
+      <c r="C74">
+        <v>7.892531728520049</v>
+      </c>
+      <c r="D74">
+        <v>7.639143582559255</v>
+      </c>
+      <c r="E74">
+        <v>8.145919874480843</v>
+      </c>
+      <c r="F74">
+        <v>7.896180608615492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B75">
+        <v>2657</v>
+      </c>
+      <c r="C75">
+        <v>7.89618881938047</v>
+      </c>
+      <c r="D75">
+        <v>7.642848313510184</v>
+      </c>
+      <c r="E75">
+        <v>8.149529325250755</v>
+      </c>
+      <c r="F75">
+        <v>7.865187954187467</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>2658</v>
+      </c>
+      <c r="B76">
+        <v>2658</v>
+      </c>
+      <c r="C76">
+        <v>7.864912151559295</v>
+      </c>
+      <c r="D76">
+        <v>7.611616555665038</v>
+      </c>
+      <c r="E76">
+        <v>8.118207747453551</v>
+      </c>
+      <c r="F76">
+        <v>7.815005266204143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>2659</v>
+      </c>
+      <c r="B77">
+        <v>2659</v>
+      </c>
+      <c r="C77">
+        <v>7.814466221425011</v>
+      </c>
+      <c r="D77">
+        <v>7.561211181168931</v>
+      </c>
+      <c r="E77">
+        <v>8.067721261681092</v>
+      </c>
+      <c r="F77">
+        <v>7.859413154693583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B78">
+        <v>2660</v>
+      </c>
+      <c r="C78">
+        <v>7.859716303758318</v>
+      </c>
+      <c r="D78">
+        <v>7.606503130099705</v>
+      </c>
+      <c r="E78">
+        <v>8.11292947741693</v>
+      </c>
+      <c r="F78">
+        <v>7.85243908535751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>2661</v>
+      </c>
+      <c r="B79">
+        <v>2661</v>
+      </c>
+      <c r="C79">
+        <v>7.852408983281684</v>
+      </c>
+      <c r="D79">
+        <v>7.599243057477163</v>
+      </c>
+      <c r="E79">
+        <v>8.105574909086204</v>
+      </c>
+      <c r="F79">
+        <v>7.872645680692354</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>2662</v>
+      </c>
+      <c r="B80">
+        <v>2662</v>
+      </c>
+      <c r="C80">
+        <v>7.872757236664241</v>
+      </c>
+      <c r="D80">
+        <v>7.619637874230968</v>
+      </c>
+      <c r="E80">
+        <v>8.125876599097513</v>
+      </c>
+      <c r="F80">
+        <v>7.882692206289025</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>2663</v>
+      </c>
+      <c r="B81">
+        <v>2663</v>
+      </c>
+      <c r="C81">
+        <v>7.882738001490503</v>
+      </c>
+      <c r="D81">
+        <v>7.629665814060097</v>
+      </c>
+      <c r="E81">
+        <v>8.135810188920908</v>
+      </c>
+      <c r="F81">
+        <v>7.915713199382115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>2664</v>
+      </c>
+      <c r="B82">
+        <v>2664</v>
+      </c>
+      <c r="C82">
+        <v>7.91594590365523</v>
+      </c>
+      <c r="D82">
+        <v>7.662918204386012</v>
+      </c>
+      <c r="E82">
+        <v>8.168973602924448</v>
+      </c>
+      <c r="F82">
+        <v>7.896366672435918</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>2665</v>
+      </c>
+      <c r="B83">
+        <v>2665</v>
+      </c>
+      <c r="C83">
+        <v>7.896206931829097</v>
+      </c>
+      <c r="D83">
+        <v>7.64322555369831</v>
+      </c>
+      <c r="E83">
+        <v>8.149188309959882</v>
+      </c>
+      <c r="F83">
+        <v>7.886081401775745</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>2666</v>
+      </c>
+      <c r="B84">
+        <v>2666</v>
+      </c>
+      <c r="C84">
+        <v>7.885996903730264</v>
+      </c>
+      <c r="D84">
+        <v>7.633062724730423</v>
+      </c>
+      <c r="E84">
+        <v>8.138931082730105</v>
+      </c>
+      <c r="F84">
+        <v>7.893945138235959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>2667</v>
+      </c>
+      <c r="B85">
+        <v>2667</v>
+      </c>
+      <c r="C85">
+        <v>7.89397686430846</v>
+      </c>
+      <c r="D85">
+        <v>7.641089949999214</v>
+      </c>
+      <c r="E85">
+        <v>8.146863778617705</v>
+      </c>
+      <c r="F85">
+        <v>7.889459149404524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>2668</v>
+      </c>
+      <c r="B86">
+        <v>2668</v>
+      </c>
+      <c r="C86">
+        <v>7.889401647352592</v>
+      </c>
+      <c r="D86">
+        <v>7.636562021570773</v>
+      </c>
+      <c r="E86">
+        <v>8.142241273134411</v>
+      </c>
+      <c r="F86">
+        <v>7.8804263442924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>2669</v>
+      </c>
+      <c r="B87">
+        <v>2669</v>
+      </c>
+      <c r="C87">
+        <v>7.880348128236603</v>
+      </c>
+      <c r="D87">
+        <v>7.62755560857326</v>
+      </c>
+      <c r="E87">
+        <v>8.133140647899946</v>
+      </c>
+      <c r="F87">
+        <v>7.869783902530146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B88">
+        <v>2670</v>
+      </c>
+      <c r="C88">
+        <v>7.869693571951325</v>
+      </c>
+      <c r="D88">
+        <v>7.616948160211635</v>
+      </c>
+      <c r="E88">
+        <v>8.122438983691016</v>
+      </c>
+      <c r="F88">
+        <v>7.867105500316739</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>2671</v>
+      </c>
+      <c r="B89">
+        <v>2671</v>
+      </c>
+      <c r="C89">
+        <v>7.8670689985098</v>
+      </c>
+      <c r="D89">
+        <v>7.61437089069302</v>
+      </c>
+      <c r="E89">
+        <v>8.119767106326579</v>
+      </c>
+      <c r="F89">
+        <v>7.862304722973382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>2672</v>
+      </c>
+      <c r="B90">
+        <v>2672</v>
+      </c>
+      <c r="C90">
+        <v>7.86225358974457</v>
+      </c>
+      <c r="D90">
+        <v>7.609602708131185</v>
+      </c>
+      <c r="E90">
+        <v>8.114904471357953</v>
+      </c>
+      <c r="F90">
+        <v>7.878534196140362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>2673</v>
+      </c>
+      <c r="B91">
+        <v>2673</v>
+      </c>
+      <c r="C91">
+        <v>7.878607190605618</v>
+      </c>
+      <c r="D91">
+        <v>7.626002812414273</v>
+      </c>
+      <c r="E91">
+        <v>8.131211568796964</v>
+      </c>
+      <c r="F91">
+        <v>7.861149098807794</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>2674</v>
+      </c>
+      <c r="B92">
+        <v>2674</v>
+      </c>
+      <c r="C92">
+        <v>7.861018485680439</v>
+      </c>
+      <c r="D92">
+        <v>7.608460476381328</v>
+      </c>
+      <c r="E92">
+        <v>8.113576494979551</v>
+      </c>
+      <c r="F92">
+        <v>7.877965852845723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>2675</v>
+      </c>
+      <c r="B93">
+        <v>2675</v>
+      </c>
+      <c r="C93">
+        <v>7.878044333544326</v>
+      </c>
+      <c r="D93">
+        <v>7.625532726620765</v>
+      </c>
+      <c r="E93">
+        <v>8.130555940467888</v>
+      </c>
+      <c r="F93">
+        <v>7.853216388156072</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>2676</v>
+      </c>
+      <c r="B94">
+        <v>2676</v>
+      </c>
+      <c r="C94">
+        <v>7.853068894354152</v>
+      </c>
+      <c r="D94">
+        <v>7.600602720012584</v>
+      </c>
+      <c r="E94">
+        <v>8.105535068695721</v>
+      </c>
+      <c r="F94">
+        <v>7.859413154693583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>2677</v>
+      </c>
+      <c r="B95">
+        <v>2677</v>
+      </c>
+      <c r="C95">
+        <v>7.859420409728505</v>
+      </c>
+      <c r="D95">
+        <v>7.607001266533092</v>
+      </c>
+      <c r="E95">
+        <v>8.111839552923918</v>
+      </c>
+      <c r="F95">
+        <v>7.905441649060286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B96">
+        <v>2678</v>
+      </c>
+      <c r="C96">
+        <v>7.905654089187426</v>
+      </c>
+      <c r="D96">
+        <v>7.653276060496532</v>
+      </c>
+      <c r="E96">
+        <v>8.158032117878319</v>
+      </c>
+      <c r="F96">
+        <v>7.922985958711195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>2679</v>
+      </c>
+      <c r="B97">
+        <v>2679</v>
+      </c>
+      <c r="C97">
+        <v>7.923076287256665</v>
+      </c>
+      <c r="D97">
+        <v>7.670744529314057</v>
+      </c>
+      <c r="E97">
+        <v>8.175408045199273</v>
+      </c>
+      <c r="F97">
+        <v>7.953669778649798</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>2680</v>
+      </c>
+      <c r="B98">
+        <v>2680</v>
+      </c>
+      <c r="C98">
+        <v>7.953870933311073</v>
+      </c>
+      <c r="D98">
+        <v>7.701583603348804</v>
+      </c>
+      <c r="E98">
+        <v>8.206158263273341</v>
+      </c>
+      <c r="F98">
+        <v>7.94873845481361</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>2681</v>
+      </c>
+      <c r="B99">
+        <v>2681</v>
+      </c>
+      <c r="C99">
+        <v>7.948683122389793</v>
+      </c>
+      <c r="D99">
+        <v>7.696442771188854</v>
+      </c>
+      <c r="E99">
+        <v>8.200923473590732</v>
+      </c>
+      <c r="F99">
+        <v>7.921898411023797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>2682</v>
+      </c>
+      <c r="B100">
+        <v>2682</v>
+      </c>
+      <c r="C100">
+        <v>7.921685005094691</v>
+      </c>
+      <c r="D100">
+        <v>7.669489641267401</v>
+      </c>
+      <c r="E100">
+        <v>8.17388036892198</v>
+      </c>
+      <c r="F100">
+        <v>7.943605245913932</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>2683</v>
+      </c>
+      <c r="B101">
+        <v>2683</v>
+      </c>
+      <c r="C101">
+        <v>7.943731607208592</v>
+      </c>
+      <c r="D101">
+        <v>7.691581776102334</v>
+      </c>
+      <c r="E101">
+        <v>8.195881438314849</v>
+      </c>
+      <c r="F101">
+        <v>7.938445551164788</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2684</v>
+      </c>
+      <c r="B102">
+        <v>2684</v>
+      </c>
+      <c r="C102">
+        <v>7.938392668389699</v>
+      </c>
+      <c r="D102">
+        <v>7.686289842815004</v>
+      </c>
+      <c r="E102">
+        <v>8.190495493964393</v>
+      </c>
+      <c r="F102">
+        <v>7.943427767876373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B103">
+        <v>2685</v>
+      </c>
+      <c r="C103">
+        <v>7.943438632301062</v>
+      </c>
+      <c r="D103">
+        <v>7.691382685159994</v>
+      </c>
+      <c r="E103">
+        <v>8.19549457944213</v>
+      </c>
+      <c r="F103">
+        <v>7.952790966746854</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>2686</v>
+      </c>
+      <c r="B104">
+        <v>2686</v>
+      </c>
+      <c r="C104">
+        <v>7.952836710278698</v>
+      </c>
+      <c r="D104">
+        <v>7.700827444693187</v>
+      </c>
+      <c r="E104">
+        <v>8.204845975864208</v>
+      </c>
+      <c r="F104">
+        <v>7.958576903813898</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>2687</v>
+      </c>
+      <c r="B105">
+        <v>2687</v>
+      </c>
+      <c r="C105">
+        <v>7.958594086027528</v>
+      </c>
+      <c r="D105">
+        <v>7.706631626819357</v>
+      </c>
+      <c r="E105">
+        <v>8.210556545235699</v>
+      </c>
+      <c r="F105">
+        <v>7.965198290612176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>2688</v>
+      </c>
+      <c r="B106">
+        <v>2688</v>
+      </c>
+      <c r="C106">
+        <v>7.965221076943291</v>
+      </c>
+      <c r="D106">
+        <v>7.713305366804375</v>
+      </c>
+      <c r="E106">
+        <v>8.217136787082206</v>
+      </c>
+      <c r="F106">
+        <v>7.969876459067832</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>2689</v>
+      </c>
+      <c r="B107">
+        <v>2689</v>
+      </c>
+      <c r="C107">
+        <v>7.969887044339</v>
+      </c>
+      <c r="D107">
+        <v>7.718018119086278</v>
+      </c>
+      <c r="E107">
+        <v>8.221755969591722</v>
+      </c>
+      <c r="F107">
+        <v>7.930206206684683</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B108">
+        <v>2690</v>
+      </c>
+      <c r="C108">
+        <v>7.929916972698321</v>
+      </c>
+      <c r="D108">
+        <v>7.678090303437811</v>
+      </c>
+      <c r="E108">
+        <v>8.18174364195883</v>
+      </c>
+      <c r="F108">
+        <v>7.913886714856082</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B109">
+        <v>2691</v>
+      </c>
+      <c r="C109">
+        <v>7.913753795530641</v>
+      </c>
+      <c r="D109">
+        <v>7.661973286529169</v>
+      </c>
+      <c r="E109">
+        <v>8.165534304532114</v>
+      </c>
+      <c r="F109">
+        <v>7.911507286626287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B110">
+        <v>2692</v>
+      </c>
+      <c r="C110">
+        <v>7.911471657849126</v>
+      </c>
+      <c r="D110">
+        <v>7.659737905044201</v>
+      </c>
+      <c r="E110">
+        <v>8.163205410654051</v>
+      </c>
+      <c r="F110">
+        <v>7.938445551164788</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B111">
+        <v>2693</v>
+      </c>
+      <c r="C111">
+        <v>7.938609358563293</v>
+      </c>
+      <c r="D111">
+        <v>7.686920230810147</v>
+      </c>
+      <c r="E111">
+        <v>8.19029848631644</v>
+      </c>
+      <c r="F111">
+        <v>7.926602599181384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B112">
+        <v>2694</v>
+      </c>
+      <c r="C112">
+        <v>7.926504702128197</v>
+      </c>
+      <c r="D112">
+        <v>7.674861941224294</v>
+      </c>
+      <c r="E112">
+        <v>8.178147463032099</v>
+      </c>
+      <c r="F112">
+        <v>7.921172721587014</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B113">
+        <v>2695</v>
+      </c>
+      <c r="C113">
+        <v>7.921106117117461</v>
+      </c>
+      <c r="D113">
+        <v>7.669509922888965</v>
+      </c>
+      <c r="E113">
+        <v>8.172702311345956</v>
+      </c>
+      <c r="F113">
+        <v>7.938267154946315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B114">
+        <v>2696</v>
+      </c>
+      <c r="C114">
+        <v>7.938353550190744</v>
+      </c>
+      <c r="D114">
+        <v>7.686803210996308</v>
+      </c>
+      <c r="E114">
+        <v>8.18990388938518</v>
+      </c>
+      <c r="F114">
+        <v>7.935408478709753</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>2697</v>
+      </c>
+      <c r="B115">
+        <v>2697</v>
+      </c>
+      <c r="C115">
+        <v>7.935370207265572</v>
+      </c>
+      <c r="D115">
+        <v>7.683866505278964</v>
+      </c>
+      <c r="E115">
+        <v>8.18687390925218</v>
+      </c>
+      <c r="F115">
+        <v>7.949091499830517</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B116">
+        <v>2698</v>
+      </c>
+      <c r="C116">
+        <v>7.949159950788861</v>
+      </c>
+      <c r="D116">
+        <v>7.69770232944639</v>
+      </c>
+      <c r="E116">
+        <v>8.200617572131332</v>
+      </c>
+      <c r="F116">
+        <v>7.925699664582792</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B117">
+        <v>2699</v>
+      </c>
+      <c r="C117">
+        <v>7.925521307223801</v>
+      </c>
+      <c r="D117">
+        <v>7.674108707562914</v>
+      </c>
+      <c r="E117">
+        <v>8.176933906884688</v>
+      </c>
+      <c r="F117">
+        <v>7.920628108702537</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B118">
+        <v>2700</v>
+      </c>
+      <c r="C118">
+        <v>7.92057932892275</v>
+      </c>
+      <c r="D118">
+        <v>7.669213233281684</v>
+      </c>
+      <c r="E118">
+        <v>8.171945424563814</v>
+      </c>
+      <c r="F118">
+        <v>7.946971357693591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B119">
+        <v>2701</v>
+      </c>
+      <c r="C119">
+        <v>7.947048103826314</v>
+      </c>
+      <c r="D119">
+        <v>7.69572646665014</v>
+      </c>
+      <c r="E119">
+        <v>8.198369741002489</v>
+      </c>
+      <c r="F119">
+        <v>7.935408478709753</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B120">
+        <v>2702</v>
+      </c>
+      <c r="C120">
+        <v>7.935325030193185</v>
+      </c>
+      <c r="D120">
+        <v>7.684049621068435</v>
+      </c>
+      <c r="E120">
+        <v>8.186600439317937</v>
+      </c>
+      <c r="F120">
+        <v>7.893758623267592</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B121">
+        <v>2703</v>
+      </c>
+      <c r="C121">
+        <v>7.89347364851423</v>
+      </c>
+      <c r="D121">
+        <v>7.642239817614183</v>
+      </c>
+      <c r="E121">
+        <v>8.144707479414278</v>
+      </c>
+      <c r="F121">
+        <v>7.90304201708279</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B122">
+        <v>2704</v>
+      </c>
+      <c r="C122">
+        <v>7.903076850083963</v>
+      </c>
+      <c r="D122">
+        <v>7.65188924208115</v>
+      </c>
+      <c r="E122">
+        <v>8.154264458086775</v>
+      </c>
+      <c r="F122">
+        <v>7.89413161842298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B123">
+        <v>2705</v>
+      </c>
+      <c r="C123">
+        <v>7.894061573258751</v>
+      </c>
+      <c r="D123">
+        <v>7.642920171485645</v>
+      </c>
+      <c r="E123">
+        <v>8.145202975031859</v>
+      </c>
+      <c r="F123">
+        <v>7.891143754388787</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B124">
+        <v>2706</v>
+      </c>
+      <c r="C124">
+        <v>7.891108301518625</v>
+      </c>
+      <c r="D124">
+        <v>7.640013286515274</v>
+      </c>
+      <c r="E124">
+        <v>8.142203316521977</v>
+      </c>
+      <c r="F124">
+        <v>7.852244665214971</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B125">
+        <v>2707</v>
+      </c>
+      <c r="C125">
+        <v>7.851994049643361</v>
+      </c>
+      <c r="D125">
+        <v>7.600941133356166</v>
+      </c>
+      <c r="E125">
+        <v>8.103046965930556</v>
+      </c>
+      <c r="F125">
+        <v>7.863459013213127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>2708</v>
       </c>
-      <c r="B3">
+      <c r="B126">
         <v>2708</v>
       </c>
-      <c r="C3">
+      <c r="C126">
         <v>7.863497650184991</v>
       </c>
-      <c r="D3">
+      <c r="D126">
         <v>7.612490737452458</v>
       </c>
-      <c r="E3">
+      <c r="E126">
         <v>8.114504562917524</v>
       </c>
-      <c r="F3">
+      <c r="F126">
         <v>7.870738738848274</v>
       </c>
     </row>
